--- a/biology/Zoologie/Dolichowithius/Dolichowithius.xlsx
+++ b/biology/Zoologie/Dolichowithius/Dolichowithius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dolichowithius est un genre de pseudoscorpions de la famille des Withiidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Amérique du Sud, en Amérique centrale et aux Antilles[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Amérique du Sud, en Amérique centrale et aux Antilles.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Pseudoscorpions of the World (version 3.0)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Pseudoscorpions of the World (version 3.0) :
 Dolichowithius argentinus Beier, 1959
 Dolichowithius brasiliensis (Beier, 1930)
 Dolichowithius canestrinii (Balzan, 1887)
@@ -560,7 +576,7 @@
 Dolichowithius simplex Beier, 1932
 Dolichowithius solitarius Hoff, 1945
 Dolichowithius vicinus Beier, 1932
-Le sous-genre Oligowithius a été élevé au rang de genre par Romero-Ortiz, Sarmiento et Harvey en 2023[2].
+Le sous-genre Oligowithius a été élevé au rang de genre par Romero-Ortiz, Sarmiento et Harvey en 2023.
 </t>
         </is>
       </c>
@@ -589,9 +605,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été décrit par Chamberlin en 1931 dans les Cheliferidae. Il est placé dans les Withiidae par Weygoldt en 1970[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit par Chamberlin en 1931 dans les Cheliferidae. Il est placé dans les Withiidae par Weygoldt en 1970.
 </t>
         </is>
       </c>
@@ -620,7 +638,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Chamberlin, 1931 : « A synoptic revision of the generic classification of the chelonethid family Cheliferidae Simon (Arachnida). » Canadian Entomologist, vol. 63, p. 289-294.</t>
         </is>
